--- a/biology/Botanique/Construction_navale/Construction_navale.xlsx
+++ b/biology/Botanique/Construction_navale/Construction_navale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La construction navale est le processus par lequel un bateau ou un navire est fabriqué et assemblé. On parle aussi de construction maritime ou de construction nautique (plutôt pour de petits bateaux).
 La construction est un des processus de l'acquisition d'un navire, suivant la conception détaillée dans l'article architecture navale. Elle se réalise dans un chantier naval.
@@ -512,9 +524,11 @@
           <t>Construction navale ancienne</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La construction navale ancienne nous a laissé très peu de documentation précise sur les techniques employées par le passé. Cependant, il existe certains traités de construction navale qui peuvent nous donner une première idée des techniques, des matériaux utilisés ainsi que des diverses réglementations mises en place dans les chantiers. C'est par exemple le cas d'Élémens de l'architecture navale ou Traité pratique de la construction des vaisseaux d'Henri Louis Duhamel Du Monceau de 1758[1], ou, plus récent, du Traité pratique de la Construction navale d'Antoine-Joseph de Fréminville de 1864[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La construction navale ancienne nous a laissé très peu de documentation précise sur les techniques employées par le passé. Cependant, il existe certains traités de construction navale qui peuvent nous donner une première idée des techniques, des matériaux utilisés ainsi que des diverses réglementations mises en place dans les chantiers. C'est par exemple le cas d'Élémens de l'architecture navale ou Traité pratique de la construction des vaisseaux d'Henri Louis Duhamel Du Monceau de 1758, ou, plus récent, du Traité pratique de la Construction navale d'Antoine-Joseph de Fréminville de 1864.
 Plusieurs moyens sont aujourd'hui utilisés pour redécouvrir et reconstituer ces techniques d'antan, mieux comprendre l'évolution de la marine et des navires:
 l'archéologie navale, qui consiste à fouiller selon les procédures archéologiques les sites pouvant receler des épaves (sites d'échouage ou de naufrage, vasières, ports comblés…
 l'étude des sites anciens - encore existants - témoins des réalisations passées comme celui de l'Arsenal de Venise qui explique pour une part l'émergence de la République Sérénissime et les succès comme celui de la Bataille de Lépante en 1571. Dès une première période d'expansion, entre 1303 et 1325 le quadruplement de la superficie de l'arsenal de Venise, protégé par une enceinte secrète de 25 hectares, lui permet de devenir le premier Parc industriel du monde, grâce au développement naval permis par le système d'enchères pour les convois de galères en Méditerranée ;
@@ -549,25 +563,132 @@
           <t>Construction navale moderne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La construction navale a souvent été considérée comme représentative de la capacité industrielle d'un pays, d'autant que la capacité militaire navale a joué et joue encore un grand rôle dans la puissance d'un pays. Les capacités de fabrication des arsenaux expliquent pour une part les rapports de force qui ont pu s'établir notamment en Méditerranée (voir le rôle de l'Arsenal de Venise dans l'émergence de la puissante République Sérénissime et le succès dans les batailles décisives comme celle de Lépante en 1571).
 Après avoir été la force des nations occidentales jusqu'au milieu du XXe siècle, la construction navale commerciale s'est déplacée au Japon en reconstruction au début des années 1960, puis a symbolisé l'émergence industrielle de la Corée du Sud dans les années 1980. Elle devient aujourd'hui le symbole de l'émergence de la Chine en tant que puissance industrielle.
 Ce déplacement progressif des grands chantiers navals vers les pays émergents industriellement tient aussi au fait que cette industrie réclame une très nombreuse main-d’œuvre dont le coût, dans les nations les plus développées, devient non concurrentiel face aux nouveaux arrivants à bas salaires.
-Situation en 2006 et 2014
-Concernant la marine marchande, en 2006, la Corée du Sud était le premier constructeur mondial, suivie par le Japon. La Chine et l'Europe représentent chacun environ 15 % du marché.
-Les principaux pays constructeurs en 2014[3] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Construction_navale</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Construction_navale</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Construction navale moderne</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Situation en 2006 et 2014</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Concernant la marine marchande, en 2006, la Corée du Sud était le premier constructeur mondial, suivie par le Japon. La Chine et l'Europe représentent chacun environ 15 % du marché.
+Les principaux pays constructeurs en 2014 :
 Près de 57 % du tonnage livré en 2012 concernaient des navires de vrac sec, suivis par les pétroliers (18,4 %) et les porte-conteneurs (14,4 %).
 Les chantiers navals se spécialisent également dans différents types de navires. La Chine et le Japon ont principalement construit des cargos de vrac sec, la Corée du Sud produit plutôt des navires porte-conteneurs et des pétroliers, l'Europe construit essentiellement des navires à passagers.
 Outre les vraquiers, le Japon se concentre également sur d'autres navires spécialisés, y compris les méthaniers et les transporteurs de véhicules.
-Les quatre plus grands groupes de construction navale individuels sont situés en Corée du Sud ; la construction navale en Chine est dispersée en un grand nombre d'entreprises[4].
-La construction navale européenne et la concurrence asiatique
-Depuis la fin de la seconde guerre mondiale, la construction navale en Europe s’est vue concurrencée par le marché asiatique. Le Japon puis la Corée du Sud et ensuite la Chine notamment - grâce à de faibles coûts de main-d’œuvre et une très bonne organisation du travail - sont devenues en moins de trente ans les premiers constructeurs de navires, forçant les différents grands chantiers européens à se spécialiser pour ne pas réduire leur activité.
+Les quatre plus grands groupes de construction navale individuels sont situés en Corée du Sud ; la construction navale en Chine est dispersée en un grand nombre d'entreprises.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Construction_navale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Construction_navale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Construction navale moderne</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>La construction navale européenne et la concurrence asiatique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis la fin de la seconde guerre mondiale, la construction navale en Europe s’est vue concurrencée par le marché asiatique. Le Japon puis la Corée du Sud et ensuite la Chine notamment - grâce à de faibles coûts de main-d’œuvre et une très bonne organisation du travail - sont devenues en moins de trente ans les premiers constructeurs de navires, forçant les différents grands chantiers européens à se spécialiser pour ne pas réduire leur activité.
 Ainsi, seuls les secteurs de la construction de navires de passagers ainsi que celle des navires spécialisés sont restés l’atout des chantiers italiens, français ou encore scandinaves, les asiatiques produisant environ quatre-vingts pour cent des navires réguliers tels que tankers ou porte-conteneurs.
 Aujourd'hui, la construction navale européenne se trouve face à une nouvelle conjoncture, et les méthodes de travail et de gestions doivent évoluer pour permettre la survie de ce secteur. En effet, le Japon et la Corée du Sud d’une part, ayant réalisé depuis la fin des années 1980 d’importants progrès sur le point de la modernisation et de la productivité, et la Chine d’autre part, devenant de plus en plus présente dans ce secteur, il devient nécessaire pour les constructeurs européens de réorganiser leur travail pour rester compétitifs.
 Pour cela, l’alliance entre grands groupes – tels que le norvégien Aker Yards et les Chantiers de l'Atlantique en France – ainsi que la pratique de la sous-traitance sont devenues une habitude en Europe de l'Ouest.
-La construction navale dans le nautisme
-Le bois est encore très utilisé dans le domaine de la plaisance. Tout d'abord utilisé de manière traditionnelle, il a su s'adapter aux nouvelles colles synthétiques puis sous forme de composite ce qui en fait un matériau très moderne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Construction_navale</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Construction_navale</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Construction navale moderne</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>La construction navale dans le nautisme</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois est encore très utilisé dans le domaine de la plaisance. Tout d'abord utilisé de manière traditionnelle, il a su s'adapter aux nouvelles colles synthétiques puis sous forme de composite ce qui en fait un matériau très moderne.
 Le bois en lui-même est en quelque sorte un composite naturel. Toutefois plusieurs méthodes de mise en œuvre permettent d'obtenir une coque légère, relativement bon marché (face à la fibre de verre par exemple) tout en s'affranchissant des anciens défauts du bois comme le pourrissement ou la confrontation avec les xylophages marins.
 On dénombre essentiellement quatre approches pour le bois moderne :
 le contreplaqué : requérant l'usage du bouchain vif, cette méthode permet une coque plus lourde mais moins sensible au poinçonnement,
@@ -579,31 +700,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Construction_navale</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Construction_navale</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Les entreprises</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve"> Principaux constructeurs navals[Quand ?] : </t>
         </is>
